--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf3-Tdgf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf3-Tdgf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -443,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +513,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.505463</v>
+        <v>4.501936999999999</v>
       </c>
       <c r="H2">
-        <v>1.516389</v>
+        <v>13.505811</v>
       </c>
       <c r="I2">
-        <v>0.05568352462963613</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.05568352462963613</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +546,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="N2">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,78 +558,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05789387865566667</v>
+        <v>0.02940215054699999</v>
       </c>
       <c r="R2">
-        <v>0.521044907901</v>
+        <v>0.2646193549229999</v>
       </c>
       <c r="S2">
-        <v>0.05568352462963613</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.05568352462963613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>8.571961666666668</v>
-      </c>
-      <c r="H3">
-        <v>25.715885</v>
-      </c>
-      <c r="I3">
-        <v>0.9443164753703638</v>
-      </c>
-      <c r="J3">
-        <v>0.9443164753703639</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.1145363333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.343609</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.9818010587738891</v>
-      </c>
-      <c r="R3">
-        <v>8.836209528965002</v>
-      </c>
-      <c r="S3">
-        <v>0.9443164753703638</v>
-      </c>
-      <c r="T3">
-        <v>0.9443164753703639</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
